--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2015.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2015.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>169.6693946436</v>
+        <v>1696693.946436</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1147.5286204935</v>
+        <v>11475286.204935</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>367.5993415221</v>
+        <v>3675993.415221</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>118.1036168182</v>
+        <v>1181036.168182</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>652.1066011809</v>
+        <v>6521066.011809</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>57.656029715</v>
+        <v>576560.29715</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>176.1018289914</v>
+        <v>1761018.289914</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1751117122</v>
+        <v>281751.117122</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>145.3071446718</v>
+        <v>1453071.446718</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>127.6013107121</v>
+        <v>1276013.107121</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>107.6757220732</v>
+        <v>1076757.220732</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>494.9463434506</v>
+        <v>4949463.434506</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>151.6117153227</v>
+        <v>1516117.153227</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>54.521422245</v>
+        <v>545214.22245</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>1016.3395752203</v>
+        <v>10163395.752203</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>107.710014431</v>
+        <v>1077100.14431</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>231.2704725347</v>
+        <v>2312704.725347</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>188.5988776212</v>
+        <v>1885988.776212</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>28.6118210905</v>
+        <v>286118.210905</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>47.1048657485</v>
+        <v>471048.657485</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>9835.7896</v>
+        <v>98357896</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>386.5607331231</v>
+        <v>3865607.331231</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>97.2416554906</v>
+        <v>972416.554906</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>298.5237182962</v>
+        <v>2985237.182962</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>510.1282045263</v>
+        <v>5101282.045263</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>293.2643595974</v>
+        <v>2932643.595974</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>330.7078645489</v>
+        <v>3307078.645489</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>16.9821278996</v>
+        <v>169821.278996</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>121.2578103854</v>
+        <v>1212578.103854</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>173.578595345</v>
+        <v>1735785.95345</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>201.9061128324</v>
+        <v>2019061.128324</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>184.3372885213</v>
+        <v>1843372.885213</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
